--- a/ExcelDatas/Datas/uicfg.xlsx
+++ b/ExcelDatas/Datas/uicfg.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14775"/>
+    <workbookView windowWidth="23115" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -66,6 +79,9 @@
     </r>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -73,6 +89,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>jint</t>
   </si>
   <si>
     <t>##group</t>
@@ -112,6 +131,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>价格</t>
+  </si>
+  <si>
     <t>发型</t>
   </si>
   <si>
@@ -133,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1143,7 +1165,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1176,7 +1198,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1249,18 +1273,20 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:35">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1294,12 +1320,12 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1335,18 +1361,20 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:35">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1383,17 +1411,16 @@
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6"/>
       <c r="I6" s="5"/>
-      <c r="J6"/>
       <c r="K6" s="5"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -1403,17 +1430,16 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>101</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7"/>
       <c r="I7" s="5"/>
-      <c r="J7"/>
       <c r="K7" s="5"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -1423,57 +1449,45 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>102</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8"/>
       <c r="I8" s="5"/>
-      <c r="J8"/>
       <c r="K8" s="5"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="7:13">
       <c r="G9" s="5"/>
-      <c r="H9"/>
       <c r="I9" s="5"/>
-      <c r="J9"/>
       <c r="K9" s="5"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="7:13">
       <c r="G10" s="5"/>
-      <c r="H10"/>
       <c r="I10" s="5"/>
-      <c r="J10"/>
       <c r="K10" s="5"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="5"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
       <c r="G11" s="5"/>
-      <c r="H11"/>
       <c r="I11" s="5"/>
-      <c r="J11"/>
       <c r="K11" s="5"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="7:13">
       <c r="G12" s="5"/>
-      <c r="H12"/>
       <c r="I12" s="5"/>
-      <c r="J12"/>
       <c r="K12" s="5"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -1481,12 +1495,8 @@
     <row r="13" spans="3:13">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13"/>
-      <c r="F13"/>
       <c r="G13" s="6"/>
-      <c r="H13"/>
       <c r="I13" s="5"/>
-      <c r="J13"/>
       <c r="K13" s="5"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -1494,12 +1504,8 @@
     <row r="14" spans="3:13">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14"/>
-      <c r="F14"/>
       <c r="G14" s="6"/>
-      <c r="H14"/>
       <c r="I14" s="5"/>
-      <c r="J14"/>
       <c r="K14" s="5"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -1507,12 +1513,8 @@
     <row r="15" spans="3:13">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15"/>
-      <c r="F15"/>
       <c r="G15" s="5"/>
-      <c r="H15"/>
       <c r="I15" s="5"/>
-      <c r="J15"/>
       <c r="K15" s="5"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>

--- a/ExcelDatas/Datas/uicfg.xlsx
+++ b/ExcelDatas/Datas/uicfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23115" windowHeight="14775"/>
+    <workbookView windowWidth="27945" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -54,102 +54,49 @@
     </r>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esc</t>
-    </r>
-  </si>
-  <si>
-    <t>price</t>
+    <t>LayerId</t>
+  </si>
+  <si>
+    <t>ResPath</t>
   </si>
   <si>
     <t>##type</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>jint</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>发型</t>
-  </si>
-  <si>
-    <t>初始发型</t>
-  </si>
-  <si>
-    <t>外套</t>
-  </si>
-  <si>
-    <t>初始外套</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>初始上衣</t>
+    <t>UI名字</t>
+  </si>
+  <si>
+    <t>层级</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
+    <t>MainUi</t>
+  </si>
+  <si>
+    <t>Main_MainUi</t>
+  </si>
+  <si>
+    <t>LoadingUi</t>
+  </si>
+  <si>
+    <t>Loading_LoadingUi</t>
+  </si>
+  <si>
+    <t>LoginUi</t>
+  </si>
+  <si>
+    <t>Login_LoginUi</t>
   </si>
 </sst>
 </file>
@@ -819,6 +766,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
@@ -828,12 +781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,30 +1109,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.225" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="13.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.3833333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:35">
+    <row r="1" s="1" customFormat="1" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1198,18 +1143,16 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1"/>
+      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1229,10 +1172,8 @@
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:35">
+    <row r="2" s="1" customFormat="1" spans="1:33">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1244,11 +1185,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="11"/>
+      <c r="M2"/>
+      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1268,34 +1209,30 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:35">
+    <row r="3" s="2" customFormat="1" spans="1:33">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="9"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="11"/>
+      <c r="M3"/>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1315,28 +1252,30 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:35">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:33">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="11"/>
+      <c r="M4"/>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1356,173 +1295,111 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="9"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6">
-        <v>10000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+    <row r="8" spans="5:11">
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7">
-        <v>10001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>101</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+    <row r="9" spans="5:11">
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8">
-        <v>10002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>102</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+    <row r="10" spans="5:11">
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
-    <row r="9" spans="7:13">
-      <c r="G9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+    <row r="11" spans="5:11">
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
-    <row r="10" spans="7:13">
-      <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+    <row r="12" spans="3:11">
+      <c r="C12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+    <row r="13" spans="3:11">
+      <c r="C13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
-    <row r="12" spans="7:13">
-      <c r="G12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+    <row r="14" spans="3:11">
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ExcelDatas/Datas/uicfg.xlsx
+++ b/ExcelDatas/Datas/uicfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14775"/>
+    <workbookView windowWidth="27015" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Login_LoginUi</t>
+  </si>
+  <si>
+    <t>SelectServerUI</t>
+  </si>
+  <si>
+    <t>Login_SelectServerUI</t>
+  </si>
+  <si>
+    <t>CurrencyUI</t>
+  </si>
+  <si>
+    <t>Main_CurrencyUI</t>
+  </si>
+  <si>
+    <t>MainMenuUi</t>
+  </si>
+  <si>
+    <t>Main_MainMenuUi</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1130,7 @@
   <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1344,21 +1362,48 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="5:11">
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="G8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="5:11">
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="G9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="5:11">
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="G10" s="7"/>
       <c r="I10" s="7"/>
